--- a/artfynd/A 34096-2022.xlsx
+++ b/artfynd/A 34096-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>68622706</v>
+        <v>68622864</v>
       </c>
       <c r="B2" t="n">
         <v>89412</v>
@@ -713,8 +713,16 @@
           <t>(Brot.) Murrill</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -722,13 +730,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>546432.303739182</v>
+        <v>546498.5877618975</v>
       </c>
       <c r="R2" t="n">
-        <v>6509309.195388668</v>
+        <v>6509379.064724375</v>
       </c>
       <c r="S2" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -795,7 +803,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68622864</v>
+        <v>68622706</v>
       </c>
       <c r="B3" t="n">
         <v>89412</v>
@@ -828,16 +836,8 @@
           <t>(Brot.) Murrill</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>546498.5877618975</v>
+        <v>546432.303739182</v>
       </c>
       <c r="R3" t="n">
-        <v>6509379.064724375</v>
+        <v>6509309.195388668</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>

--- a/artfynd/A 34096-2022.xlsx
+++ b/artfynd/A 34096-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>68622864</v>
+        <v>68622706</v>
       </c>
       <c r="B2" t="n">
         <v>89412</v>
@@ -713,16 +713,8 @@
           <t>(Brot.) Murrill</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -730,13 +722,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>546498.5877618975</v>
+        <v>546432.303739182</v>
       </c>
       <c r="R2" t="n">
-        <v>6509379.064724375</v>
+        <v>6509309.195388668</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -803,7 +795,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68622706</v>
+        <v>68622864</v>
       </c>
       <c r="B3" t="n">
         <v>89412</v>
@@ -836,8 +828,16 @@
           <t>(Brot.) Murrill</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>546432.303739182</v>
+        <v>546498.5877618975</v>
       </c>
       <c r="R3" t="n">
-        <v>6509309.195388668</v>
+        <v>6509379.064724375</v>
       </c>
       <c r="S3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
